--- a/Bestanden/Overig/Project PVS-projectverantwoordelijkhedenschema.xlsx
+++ b/Bestanden/Overig/Project PVS-projectverantwoordelijkhedenschema.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Dropbox\Project EatIt\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikJan\Documents\GitHub\EatIt\Bestanden\Overig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>PROJECTVERANTWOORDELIJKHEDENSCHEMA</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Logisch Datbase model</t>
-  </si>
-  <si>
-    <t>ERD</t>
   </si>
   <si>
     <t>Gevulde MySQL Database</t>
@@ -459,6 +456,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -474,40 +502,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,9 +520,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -563,7 +560,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -635,7 +632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,39 +782,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="3.140625" customWidth="1"/>
+    <col min="2" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="3.109375" customWidth="1"/>
     <col min="17" max="17" width="26" style="2" customWidth="1"/>
-    <col min="18" max="30" width="3.140625" customWidth="1"/>
+    <col min="18" max="30" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
@@ -830,73 +827,73 @@
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
     </row>
-    <row r="2" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="T2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="U2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+    </row>
+    <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -918,13 +915,13 @@
       <c r="Q4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -944,13 +941,13 @@
       <c r="Q5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -970,71 +967,71 @@
       <c r="Q6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="Q7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
       <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1042,13 +1039,13 @@
       <c r="Q8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="25"/>
@@ -1069,22 +1066,22 @@
         <v>14</v>
       </c>
       <c r="R9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="23"/>
@@ -1105,22 +1102,22 @@
         <v>15</v>
       </c>
       <c r="R10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1140,25 +1137,25 @@
         <v>16</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11" s="27"/>
       <c r="T11" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1170,26 +1167,26 @@
         <v>17</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1199,92 +1196,94 @@
       <c r="Q13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="27" t="s">
+      <c r="R13" s="6"/>
+      <c r="S13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V13" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="S14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T14" s="6"/>
       <c r="U14" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V14" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="43"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1294,22 +1293,14 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="Q16" s="8"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1333,7 +1324,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1357,7 +1348,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1381,42 +1372,18 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="T2:T8"/>
+    <mergeCell ref="U2:U8"/>
+    <mergeCell ref="V2:V8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="R2:R8"/>
-    <mergeCell ref="S2:S8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="T2:T8"/>
-    <mergeCell ref="U2:U8"/>
-    <mergeCell ref="V2:V8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1431,7 +1398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1445,7 +1412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bestanden/Overig/Project PVS-projectverantwoordelijkhedenschema.xlsx
+++ b/Bestanden/Overig/Project PVS-projectverantwoordelijkhedenschema.xlsx
@@ -457,6 +457,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -483,24 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,6 +517,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1036320" cy="259080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240"/>
+          <a:ext cx="1036320" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bijlage 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1050"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,7 +850,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -796,25 +861,25 @@
     <col min="18" max="30" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
@@ -828,70 +893,70 @@
       <c r="W1" s="22"/>
     </row>
     <row r="2" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -915,11 +980,11 @@
       <c r="Q4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -941,11 +1006,11 @@
       <c r="Q5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -967,36 +1032,36 @@
       <c r="Q6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
       <c r="Q7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1039,11 +1104,11 @@
       <c r="Q8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -1389,6 +1454,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
